--- a/data/templates/AI_Adoption_MASEM_Coding_v1.xlsx
+++ b/data/templates/AI_Adoption_MASEM_Coding_v1.xlsx
@@ -18,10 +18,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SEARCH_LOG" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CODEBOOK'!$A$1:$G$132</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'STUDY_METADATA'!$A$1:$AV$1001</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CODEBOOK'!$A$1:$G$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'STUDY_METADATA'!$A$1:$AY$1001</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'CORRELATION_MATRIX'!$A$1:$K$1001</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'CONSTRUCT_MAPPING'!$A$1:$J$1001</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'CONSTRUCT_MAPPING'!$A$1:$L$1001</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'MODERATOR_VARIABLES'!$A$1:$J$1001</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'AI_EXTRACTION_PROVENANCE'!$A$1:$T$1001</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'DISCREPANCY_LOG'!$A$1:$K$1001</definedName>
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1388,7 +1388,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>n_correlations_reported</t>
+          <t>measures_BI</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1398,30 +1398,34 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>categorical</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Positive integer</t>
+          <t>yes,no</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Number of pairwise correlations reported</t>
+          <t>Whether Behavioral Intention (BI) is measured</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr"/>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>Dropdown list validation</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>matrix_completeness</t>
+          <t>measures_UB</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1431,34 +1435,34 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>categorical</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>yes,no</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Proportion of possible pairs reported (out of C(k,2))</t>
+          <t>Whether Use Behavior (UB) is measured</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>Proportion/probability</t>
+          <t>Dropdown list validation</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>reporting_quality</t>
+          <t>adoption_dv_type</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1473,17 +1477,17 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,2,3,4,5</t>
+          <t>BI_only,UB_only,BI_and_UB,readiness_as_BI,other</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1=poor to 5=excellent reporting quality</t>
+          <t>Type of adoption/use outcome variable</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>BI_only</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -1495,7 +1499,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>sample_adequacy</t>
+          <t>n_correlations_reported</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1505,34 +1509,30 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>categorical</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>adequate,marginal,inadequate</t>
+          <t>Positive integer</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Based on N relative to parameters</t>
+          <t>Number of pairwise correlations reported</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>adequate</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>Dropdown list validation</t>
-        </is>
-      </c>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>construct_validity</t>
+          <t>matrix_completeness</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1542,34 +1542,34 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>categorical</t>
+          <t>float</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>good,acceptable,poor</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Overall measurement quality</t>
+          <t>Proportion of possible pairs reported (out of C(k,2))</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Dropdown list validation</t>
+          <t>Proportion/probability</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>common_method_bias</t>
+          <t>reporting_quality</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>addressed,not_addressed,partial</t>
+          <t>1,2,3,4,5</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Whether CMB was tested/addressed</t>
+          <t>1=poor to 5=excellent reporting quality</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>addressed</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -1606,7 +1606,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>overall_quality</t>
+          <t>sample_adequacy</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1621,17 +1621,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>high,medium,low</t>
+          <t>adequate,marginal,inadequate</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Overall study quality assessment</t>
+          <t>Based on N relative to parameters</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>adequate</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -1643,7 +1643,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>rob_notes</t>
+          <t>construct_validity</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1653,26 +1653,34 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>good,acceptable,poor</t>
+        </is>
+      </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Risk of bias notes</t>
+          <t>Overall measurement quality</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>Harman single factor test reported</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="inlineStr"/>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>Dropdown list validation</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>screen_decision_codex</t>
+          <t>common_method_bias</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -1687,17 +1695,17 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>include,exclude,uncertain</t>
+          <t>addressed,not_addressed,partial</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Codex CLI screening decision</t>
+          <t>Whether CMB was tested/addressed</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>addressed</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -1709,7 +1717,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>screen_decision_gemini</t>
+          <t>overall_quality</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -1724,17 +1732,17 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>include,exclude,uncertain</t>
+          <t>high,medium,low</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Gemini CLI screening decision</t>
+          <t>Overall study quality assessment</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>high</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -1746,7 +1754,7 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>screen_consensus</t>
+          <t>rob_notes</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -1756,34 +1764,26 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr">
-        <is>
-          <t>include,exclude,conflict</t>
-        </is>
-      </c>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Consensus result between Codex and Gemini</t>
+          <t>Risk of bias notes</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>conflict</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>Dropdown list validation</t>
-        </is>
-      </c>
+          <t>Harman single factor test reported</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>human1_decision</t>
+          <t>screen_decision_codex</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>First human screener decision</t>
+          <t>Codex CLI screening decision</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -1820,7 +1820,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>human2_decision</t>
+          <t>screen_decision_gemini</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -1840,12 +1840,12 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Second human screener decision</t>
+          <t>Gemini CLI screening decision</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>exclude</t>
+          <t>include</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>adjudicated_final_decision</t>
+          <t>screen_consensus</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -1872,17 +1872,17 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>include,exclude</t>
+          <t>include,exclude,conflict</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Final adjudicated decision</t>
+          <t>Consensus result between Codex and Gemini</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>conflict</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -1894,7 +1894,7 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>exclude_code</t>
+          <t>human1_decision</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -1909,17 +1909,17 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>E1,E2,E3,E4,E5,E6,E7,E8,E9,E10,E11,E12</t>
+          <t>include,exclude,uncertain</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Exclusion code from coding manual</t>
+          <t>First human screener decision</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>include</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -1931,7 +1931,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>decision_rationale</t>
+          <t>human2_decision</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -1941,26 +1941,34 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>include,exclude,uncertain</t>
+        </is>
+      </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Rationale for final inclusion/exclusion decision</t>
+          <t>Second human screener decision</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>Measured AI awareness only; no adoption/use DV</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr"/>
+          <t>exclude</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>Dropdown list validation</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>adjudicator_id</t>
+          <t>adjudicated_final_decision</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -1970,26 +1978,34 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>include,exclude</t>
+        </is>
+      </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>PI/adjudicator initials for resolved conflicts</t>
+          <t>Final adjudicated decision</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>HY</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="inlineStr"/>
+          <t>include</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>Dropdown list validation</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>screen_run_id</t>
+          <t>exclude_code</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -1999,26 +2015,34 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>E1,E2,E3,E4,E5,E6,E7,E8,E9,E10,E11,E12</t>
+        </is>
+      </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Batch run identifier for screening pipeline</t>
+          <t>Exclusion code from coding manual</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>scr_20260218_b01</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="inlineStr"/>
+          <t>E4</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>Dropdown list validation</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>oauth_auth_method_codex</t>
+          <t>decision_rationale</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -2028,34 +2052,26 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="inlineStr">
-        <is>
-          <t>oauth,api_key,unknown</t>
-        </is>
-      </c>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Authentication method used for Codex run</t>
+          <t>Rationale for final inclusion/exclusion decision</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>oauth</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="inlineStr">
-        <is>
-          <t>Dropdown list validation</t>
-        </is>
-      </c>
+          <t>Measured AI awareness only; no adoption/use DV</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>oauth_auth_method_gemini</t>
+          <t>adjudicator_id</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -2065,34 +2081,26 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="inlineStr">
-        <is>
-          <t>oauth,api_key,unknown</t>
-        </is>
-      </c>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Authentication method used for Gemini run</t>
+          <t>PI/adjudicator initials for resolved conflicts</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>oauth</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="inlineStr">
-        <is>
-          <t>Dropdown list validation</t>
-        </is>
-      </c>
+          <t>HY</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>human_coder</t>
+          <t>screen_run_id</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -2108,12 +2116,12 @@
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Initials of human coder</t>
+          <t>Batch run identifier for screening pipeline</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>scr_20260218_b01</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
@@ -2121,7 +2129,7 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>coding_date</t>
+          <t>oauth_auth_method_codex</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -2131,174 +2139,166 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>categorical</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>YYYY-MM-DD</t>
+          <t>oauth,api_key,unknown</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Date of coding</t>
+          <t>Authentication method used for Codex run</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>oauth</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Date format: YYYY-MM-DD</t>
+          <t>Dropdown list validation</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
+          <t>oauth_auth_method_gemini</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>STUDY_METADATA</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>oauth,api_key,unknown</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>Authentication method used for Gemini run</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>oauth</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>Dropdown list validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>human_coder</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>STUDY_METADATA</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr"/>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>Initials of human coder</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>coding_date</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>STUDY_METADATA</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>YYYY-MM-DD</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>Date of coding</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>Date format: YYYY-MM-DD</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
           <t>coding_notes</t>
         </is>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>STUDY_METADATA</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr"/>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="D52" s="2" t="inlineStr"/>
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>Any additional coding notes</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>Matrix extracted from Table 4</t>
         </is>
       </c>
-      <c r="G49" s="2" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>study_id</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>CORRELATION_MATRIX</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>FK to STUDY_METADATA</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Must match a study_id in STUDY_METADATA</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Foreign key reference</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>row_construct</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>CORRELATION_MATRIX</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>PE,EE,SI,FC,BI,UB,ATT,SE,TRU,ANX,TRA,AUT</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Row construct of the correlation pair</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Dropdown list validation</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>col_construct</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>CORRELATION_MATRIX</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>PE,EE,SI,FC,BI,UB,ATT,SE,TRU,ANX,TRA,AUT</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Column construct (alphabetically after row)</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>BI</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Dropdown list validation</t>
-        </is>
-      </c>
+      <c r="G52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>study_id</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2308,34 +2308,34 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-1 to 1</t>
+          <t>FK to STUDY_METADATA</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Pearson correlation coefficient</t>
+          <t>Must match a study_id in STUDY_METADATA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Correlation coefficient</t>
+          <t>Foreign key reference</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>r_source</t>
+          <t>row_construct</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2350,17 +2350,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>reported,beta_converted,calculated</t>
+          <t>PE,EE,SI,FC,BI,UB,ATT,SE,TRU,ANX,TRA,AUT</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>How the correlation was obtained</t>
+          <t>Row construct of the correlation pair</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>reported</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>original_beta</t>
+          <t>col_construct</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2382,26 +2382,34 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>PE,EE,SI,FC,BI,UB,ATT,SE,TRU,ANX,TRA,AUT</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Original beta if r was converted from beta</t>
+          <t>Column construct (alphabetically after row)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Dropdown list validation</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>p_value</t>
+          <t>r</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2416,29 +2424,29 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>-1 to 1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Reported p-value</t>
+          <t>Pearson correlation coefficient</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Proportion/probability</t>
+          <t>Correlation coefficient</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>n_for_pair</t>
+          <t>r_source</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2448,30 +2456,34 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>categorical</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Positive integer</t>
+          <t>reported,beta_converted,calculated</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sample size for this specific pair</t>
+          <t>How the correlation was obtained</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>384</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
+          <t>reported</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Dropdown list validation</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>source_table</t>
+          <t>original_beta</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2481,18 +2493,18 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>float</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Table/figure reference in the paper</t>
+          <t>Original beta if r was converted from beta</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Table 3</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2500,7 +2512,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>page_number</t>
+          <t>p_value</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2510,158 +2522,154 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Page number in the paper</t>
+          <t>Reported p-value</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Proportion/probability</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>n_for_pair</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CORRELATION_MATRIX</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Positive integer</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Sample size for this specific pair</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>source_table</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CORRELATION_MATRIX</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Table/figure reference in the paper</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Table 3</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>page_number</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CORRELATION_MATRIX</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Page number in the paper</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
           <t>notes</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>CORRELATION_MATRIX</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>Any notes about this correlation</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>Bootstrapped CI reported</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>study_id</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>CONSTRUCT_MAPPING</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>FK to STUDY_METADATA</t>
-        </is>
-      </c>
-      <c r="E61" s="2" t="inlineStr">
-        <is>
-          <t>Must match a study_id in STUDY_METADATA</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="inlineStr">
-        <is>
-          <t>Foreign key reference</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>original_name</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>CONSTRUCT_MAPPING</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr"/>
-      <c r="E62" s="2" t="inlineStr">
-        <is>
-          <t>Construct name as used in the original paper</t>
-        </is>
-      </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>Performance Expectancy</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>mapped_to</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>CONSTRUCT_MAPPING</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>PE,EE,SI,FC,BI,UB,ATT,SE,TRU,ANX,TRA,AUT</t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="inlineStr">
-        <is>
-          <t>Standard construct code mapped to</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="inlineStr">
-        <is>
-          <t>Dropdown list validation</t>
-        </is>
-      </c>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>mapping_confidence</t>
+          <t>study_id</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -2671,34 +2679,34 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>categorical</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>exact,high,moderate,low</t>
+          <t>FK to STUDY_METADATA</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Confidence in the mapping</t>
+          <t>Must match a study_id in STUDY_METADATA</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Dropdown list validation</t>
+          <t>Foreign key reference</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>mapping_rationale</t>
+          <t>original_name</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -2714,12 +2722,12 @@
       <c r="D65" s="2" t="inlineStr"/>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Why this mapping was chosen</t>
+          <t>Construct name as used in the original paper</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>Identical UTAUT construct</t>
+          <t>Performance Expectancy</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr"/>
@@ -2727,7 +2735,7 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>cronbach_alpha</t>
+          <t>mapped_to</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -2737,34 +2745,34 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>categorical</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>PE,EE,SI,FC,BI,UB,ATT,SE,TRU,ANX,TRA,AUT</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Reported Cronbach's alpha</t>
+          <t>Standard construct code mapped to</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Proportion/probability</t>
+          <t>Dropdown list validation</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>composite_reliability</t>
+          <t>mapping_confidence</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -2774,34 +2782,34 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>categorical</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>exact,high,moderate,low</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Composite reliability (CR)</t>
+          <t>Confidence in the mapping</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Proportion/probability</t>
+          <t>Dropdown list validation</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>ave</t>
+          <t>mapping_rationale</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -2811,34 +2819,26 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr"/>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Average Variance Extracted</t>
+          <t>Why this mapping was chosen</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="inlineStr">
-        <is>
-          <t>Proportion/probability</t>
-        </is>
-      </c>
+          <t>Identical UTAUT construct</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>num_items</t>
+          <t>cronbach_alpha</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -2848,244 +2848,236 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>float</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>Positive integer</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Number of measurement items</t>
+          <t>Reported Cronbach's alpha</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="inlineStr"/>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="inlineStr">
+        <is>
+          <t>Proportion/probability</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
+          <t>composite_reliability</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>CONSTRUCT_MAPPING</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>Composite reliability (CR)</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>Proportion/probability</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>ave</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>CONSTRUCT_MAPPING</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>Average Variance Extracted</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>Proportion/probability</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>num_items</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>CONSTRUCT_MAPPING</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>Positive integer</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>Number of measurement items</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
           <t>scale_source</t>
         </is>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B73" s="2" t="inlineStr">
         <is>
           <t>CONSTRUCT_MAPPING</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C73" s="2" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="D70" s="2" t="inlineStr"/>
-      <c r="E70" s="2" t="inlineStr">
+      <c r="D73" s="2" t="inlineStr"/>
+      <c r="E73" s="2" t="inlineStr">
         <is>
           <t>Source of the measurement scale</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
+      <c r="F73" s="2" t="inlineStr">
         <is>
           <t>Venkatesh et al. (2003)</t>
         </is>
       </c>
-      <c r="G70" s="2" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>study_id</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>MODERATOR_VARIABLES</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>FK to STUDY_METADATA</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Must match a study_id in STUDY_METADATA</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Foreign key reference</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>education_level</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>MODERATOR_VARIABLES</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
+      <c r="G73" s="2" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>is_readiness_construct</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>CONSTRUCT_MAPPING</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
         <is>
           <t>categorical</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>K-12,undergraduate,graduate,mixed</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Education level of sample</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>undergraduate</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>yes,no</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>Whether original construct was labeled as 'readiness'</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="inlineStr">
         <is>
           <t>Dropdown list validation</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>user_role</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>MODERATOR_VARIABLES</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>student,instructor,administrator,mixed</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Role in education</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Dropdown list validation</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>discipline</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>MODERATOR_VARIABLES</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>STEM,humanities,social_science,health_science,mixed</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Academic discipline</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>STEM</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Dropdown list validation</t>
-        </is>
-      </c>
-    </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>ai_tool_type</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>MODERATOR_VARIABLES</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>chatbot_LLM,ITS,LMS_AI,auto_grading,writing_assistant,adaptive_learning,general</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Type of educational AI tool</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>chatbot_LLM</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Dropdown list validation</t>
-        </is>
-      </c>
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>readiness_mapping_note</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>CONSTRUCT_MAPPING</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr"/>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>If readiness: justification for mapping to target construct (e.g., BI or SE)</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>Items measure intention; mapped to BI</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>institutional_type</t>
+          <t>study_id</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3095,34 +3087,34 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>categorical</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>public,private,online,community_college,mixed</t>
+          <t>FK to STUDY_METADATA</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Institution type</t>
+          <t>Must match a study_id in STUDY_METADATA</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Dropdown list validation</t>
+          <t>Foreign key reference</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>culture_dimension</t>
+          <t>education_level</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3132,34 +3124,34 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>categorical</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0-100</t>
+          <t>K-12,undergraduate,graduate,mixed</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Hofstede individualism score</t>
+          <t>Education level of sample</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>undergraduate</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Proportion/probability</t>
+          <t>Dropdown list validation</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>pub_year</t>
+          <t>user_role</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3169,30 +3161,34 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>categorical</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2015-2025</t>
+          <t>student,instructor,administrator,mixed</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Publication year</t>
+          <t>Role in education</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr"/>
+          <t>student</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Dropdown list validation</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>post_chatgpt</t>
+          <t>discipline</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3207,17 +3203,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>yes,no</t>
+          <t>STEM,humanities,social_science,health_science,mixed</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Published 2023+ (post-ChatGPT era)</t>
+          <t>Academic discipline</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3229,213 +3225,225 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t>ai_tool_type</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>MODERATOR_VARIABLES</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>chatbot_LLM,ITS,LMS_AI,auto_grading,writing_assistant,adaptive_learning,general</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Type of educational AI tool</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>chatbot_LLM</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Dropdown list validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>institutional_type</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>MODERATOR_VARIABLES</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>public,private,online,community_college,mixed</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Institution type</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Dropdown list validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>culture_dimension</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>MODERATOR_VARIABLES</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0-100</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Hofstede individualism score</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Proportion/probability</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>pub_year</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>MODERATOR_VARIABLES</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2015-2025</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Publication year</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>post_chatgpt</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>MODERATOR_VARIABLES</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>yes,no</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Published 2023+ (post-ChatGPT era)</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Dropdown list validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>country_development</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>MODERATOR_VARIABLES</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>categorical</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>developed,developing</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>Country development status</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>developed</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>Dropdown list validation</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="inlineStr">
-        <is>
-          <t>study_id</t>
-        </is>
-      </c>
-      <c r="B81" s="2" t="inlineStr">
-        <is>
-          <t>AI_EXTRACTION_PROVENANCE</t>
-        </is>
-      </c>
-      <c r="C81" s="2" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="D81" s="2" t="inlineStr">
-        <is>
-          <t>FK to STUDY_METADATA</t>
-        </is>
-      </c>
-      <c r="E81" s="2" t="inlineStr">
-        <is>
-          <t>Must match a study_id in STUDY_METADATA</t>
-        </is>
-      </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="inlineStr">
-        <is>
-          <t>Foreign key reference</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>variable_name</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>AI_EXTRACTION_PROVENANCE</t>
-        </is>
-      </c>
-      <c r="C82" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D82" s="2" t="inlineStr"/>
-      <c r="E82" s="2" t="inlineStr">
-        <is>
-          <t>Name of the variable being extracted</t>
-        </is>
-      </c>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>r_PE_BI</t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>field_type</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>AI_EXTRACTION_PROVENANCE</t>
-        </is>
-      </c>
-      <c r="C83" s="2" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="inlineStr">
-        <is>
-          <t>study_metadata,correlation,construct_mapping,moderator</t>
-        </is>
-      </c>
-      <c r="E83" s="2" t="inlineStr">
-        <is>
-          <t>Which sheet this variable belongs to</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>correlation</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="inlineStr">
-        <is>
-          <t>Dropdown list validation</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="inlineStr">
-        <is>
-          <t>claude_value</t>
-        </is>
-      </c>
-      <c r="B84" s="2" t="inlineStr">
-        <is>
-          <t>AI_EXTRACTION_PROVENANCE</t>
-        </is>
-      </c>
-      <c r="C84" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="inlineStr"/>
-      <c r="E84" s="2" t="inlineStr">
-        <is>
-          <t>Value extracted by Claude</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="inlineStr">
-        <is>
-          <t>claude_confidence</t>
-        </is>
-      </c>
-      <c r="B85" s="2" t="inlineStr">
-        <is>
-          <t>AI_EXTRACTION_PROVENANCE</t>
-        </is>
-      </c>
-      <c r="C85" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="E85" s="2" t="inlineStr">
-        <is>
-          <t>Claude's confidence in extraction</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="inlineStr">
-        <is>
-          <t>Proportion/probability</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>claude_raw_output</t>
+          <t>study_id</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -3445,26 +3453,34 @@
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="inlineStr"/>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>FK to STUDY_METADATA</t>
+        </is>
+      </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>Raw Claude output for audit trail</t>
+          <t>Must match a study_id in STUDY_METADATA</t>
         </is>
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>Found in Table 3: r=0.45</t>
-        </is>
-      </c>
-      <c r="G86" s="2" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="inlineStr">
+        <is>
+          <t>Foreign key reference</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>claude_prompt_version</t>
+          <t>variable_name</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -3480,12 +3496,12 @@
       <c r="D87" s="2" t="inlineStr"/>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Version of the Claude prompt used</t>
+          <t>Name of the variable being extracted</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr">
         <is>
-          <t>v2.1</t>
+          <t>r_PE_BI</t>
         </is>
       </c>
       <c r="G87" s="2" t="inlineStr"/>
@@ -3493,7 +3509,7 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>gpt4o_value</t>
+          <t>field_type</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -3503,26 +3519,34 @@
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D88" s="2" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>study_metadata,correlation,construct_mapping,moderator</t>
+        </is>
+      </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>Value extracted by GPT-4o</t>
+          <t>Which sheet this variable belongs to</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="G88" s="2" t="inlineStr"/>
+          <t>correlation</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="inlineStr">
+        <is>
+          <t>Dropdown list validation</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>gpt4o_confidence</t>
+          <t>claude_value</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -3532,34 +3556,26 @@
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="D89" s="2" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr"/>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>GPT-4o's confidence in extraction</t>
+          <t>Value extracted by Claude</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="inlineStr">
-        <is>
-          <t>Proportion/probability</t>
-        </is>
-      </c>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>gpt4o_raw_output</t>
+          <t>claude_confidence</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -3569,26 +3585,34 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D90" s="2" t="inlineStr"/>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>Raw GPT-4o output for audit trail</t>
+          <t>Claude's confidence in extraction</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>Table 3 reports r=0.45</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="inlineStr"/>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="inlineStr">
+        <is>
+          <t>Proportion/probability</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>gpt4o_prompt_version</t>
+          <t>claude_raw_output</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
@@ -3604,12 +3628,12 @@
       <c r="D91" s="2" t="inlineStr"/>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>Version of the GPT-4o prompt used</t>
+          <t>Raw Claude output for audit trail</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>v2.1</t>
+          <t>Found in Table 3: r=0.45</t>
         </is>
       </c>
       <c r="G91" s="2" t="inlineStr"/>
@@ -3617,7 +3641,7 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>groq_value</t>
+          <t>claude_prompt_version</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
@@ -3633,12 +3657,12 @@
       <c r="D92" s="2" t="inlineStr"/>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Value extracted by Groq</t>
+          <t>Version of the Claude prompt used</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>v2.1</t>
         </is>
       </c>
       <c r="G92" s="2" t="inlineStr"/>
@@ -3646,7 +3670,7 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>groq_confidence</t>
+          <t>gpt4o_value</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -3656,34 +3680,26 @@
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="D93" s="2" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr"/>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Groq's confidence in extraction</t>
+          <t>Value extracted by GPT-4o</t>
         </is>
       </c>
       <c r="F93" s="2" t="inlineStr">
         <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G93" s="2" t="inlineStr">
-        <is>
-          <t>Proportion/probability</t>
-        </is>
-      </c>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>groq_raw_output</t>
+          <t>gpt4o_confidence</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
@@ -3693,26 +3709,34 @@
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D94" s="2" t="inlineStr"/>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>Raw Groq output for audit trail</t>
+          <t>GPT-4o's confidence in extraction</t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>Correlation is 0.45</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="inlineStr"/>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="inlineStr">
+        <is>
+          <t>Proportion/probability</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>groq_prompt_version</t>
+          <t>gpt4o_raw_output</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -3728,12 +3752,12 @@
       <c r="D95" s="2" t="inlineStr"/>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>Version of the Groq prompt used</t>
+          <t>Raw GPT-4o output for audit trail</t>
         </is>
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>v2.1</t>
+          <t>Table 3 reports r=0.45</t>
         </is>
       </c>
       <c r="G95" s="2" t="inlineStr"/>
@@ -3741,7 +3765,7 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>ai_consensus_value</t>
+          <t>gpt4o_prompt_version</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -3757,12 +3781,12 @@
       <c r="D96" s="2" t="inlineStr"/>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>Consensus value across AI coders</t>
+          <t>Version of the GPT-4o prompt used</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>v2.1</t>
         </is>
       </c>
       <c r="G96" s="2" t="inlineStr"/>
@@ -3770,7 +3794,7 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>ai_consensus_method</t>
+          <t>groq_value</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -3780,34 +3804,26 @@
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="D97" s="2" t="inlineStr">
-        <is>
-          <t>majority,mean,weighted</t>
-        </is>
-      </c>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr"/>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>Method used to determine consensus</t>
+          <t>Value extracted by Groq</t>
         </is>
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>majority</t>
-        </is>
-      </c>
-      <c r="G97" s="2" t="inlineStr">
-        <is>
-          <t>Dropdown list validation</t>
-        </is>
-      </c>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>human_value</t>
+          <t>groq_confidence</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -3817,26 +3833,34 @@
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D98" s="2" t="inlineStr"/>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>Value coded by human coder</t>
+          <t>Groq's confidence in extraction</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="G98" s="2" t="inlineStr"/>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="inlineStr">
+        <is>
+          <t>Proportion/probability</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>human_coder</t>
+          <t>groq_raw_output</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -3852,12 +3876,12 @@
       <c r="D99" s="2" t="inlineStr"/>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>Initials of human coder</t>
+          <t>Raw Groq output for audit trail</t>
         </is>
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>Correlation is 0.45</t>
         </is>
       </c>
       <c r="G99" s="2" t="inlineStr"/>
@@ -3865,189 +3889,197 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
+          <t>groq_prompt_version</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>AI_EXTRACTION_PROVENANCE</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr"/>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>Version of the Groq prompt used</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>v2.1</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>ai_consensus_value</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>AI_EXTRACTION_PROVENANCE</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr"/>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>Consensus value across AI coders</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>ai_consensus_method</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>AI_EXTRACTION_PROVENANCE</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>majority,mean,weighted</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>Method used to determine consensus</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>majority</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="inlineStr">
+        <is>
+          <t>Dropdown list validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>human_value</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>AI_EXTRACTION_PROVENANCE</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="inlineStr"/>
+      <c r="E103" s="2" t="inlineStr">
+        <is>
+          <t>Value coded by human coder</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G103" s="2" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>human_coder</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>AI_EXTRACTION_PROVENANCE</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr"/>
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>Initials of human coder</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
           <t>ai_human_match</t>
         </is>
       </c>
-      <c r="B100" s="2" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>AI_EXTRACTION_PROVENANCE</t>
         </is>
       </c>
-      <c r="C100" s="2" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>categorical</t>
         </is>
       </c>
-      <c r="D100" s="2" t="inlineStr">
+      <c r="D105" s="2" t="inlineStr">
         <is>
           <t>exact,within_threshold,mismatch</t>
         </is>
       </c>
-      <c r="E100" s="2" t="inlineStr">
+      <c r="E105" s="2" t="inlineStr">
         <is>
           <t>Agreement between AI consensus and human</t>
         </is>
       </c>
-      <c r="F100" s="2" t="inlineStr">
+      <c r="F105" s="2" t="inlineStr">
         <is>
           <t>exact</t>
         </is>
       </c>
-      <c r="G100" s="2" t="inlineStr">
+      <c r="G105" s="2" t="inlineStr">
         <is>
           <t>Dropdown list validation</t>
         </is>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>study_id</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>DISCREPANCY_LOG</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Study identifier</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>pair_id</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>DISCREPANCY_LOG</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Construct pair identifier</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>PE-BI</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>variable_name</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>DISCREPANCY_LOG</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Variable where discrepancy occurred</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>coder1_value</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>DISCREPANCY_LOG</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Value from first coder</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>coder2_value</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>DISCREPANCY_LOG</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Value from second coder</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>discrepancy_type</t>
+          <t>study_id</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4057,34 +4089,26 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>human_human,ai_human,ai_ai</t>
-        </is>
-      </c>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Type of discrepancy</t>
+          <t>Study identifier</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>ai_human</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Dropdown list validation</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>pair_id</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4094,34 +4118,26 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>minor,major</t>
-        </is>
-      </c>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Severity of the discrepancy</t>
+          <t>Construct pair identifier</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>minor</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Dropdown list validation</t>
-        </is>
-      </c>
+          <t>PE-BI</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>final_value</t>
+          <t>variable_name</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4137,12 +4153,12 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Resolved final value</t>
+          <t>Variable where discrepancy occurred</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>r</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -4150,7 +4166,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>resolution_method</t>
+          <t>coder1_value</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4160,34 +4176,26 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>discussion,third_reviewer,source_recheck,calculation_error</t>
-        </is>
-      </c>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>How the discrepancy was resolved</t>
+          <t>Value from first coder</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>source_recheck</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Dropdown list validation</t>
-        </is>
-      </c>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>resolved_by</t>
+          <t>coder2_value</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4203,12 +4211,12 @@
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Who resolved the discrepancy</t>
+          <t>Value from second coder</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
@@ -4216,201 +4224,213 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
+          <t>discrepancy_type</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>DISCREPANCY_LOG</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>human_human,ai_human,ai_ai</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Type of discrepancy</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>ai_human</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Dropdown list validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>DISCREPANCY_LOG</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>minor,major</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Severity of the discrepancy</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>minor</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Dropdown list validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>final_value</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>DISCREPANCY_LOG</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Resolved final value</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>resolution_method</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>DISCREPANCY_LOG</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>discussion,third_reviewer,source_recheck,calculation_error</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>How the discrepancy was resolved</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>source_recheck</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Dropdown list validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>resolved_by</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>DISCREPANCY_LOG</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Who resolved the discrepancy</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
           <t>resolution_date</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>DISCREPANCY_LOG</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>YYYY-MM-DD</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>Date of resolution</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>2025-02-01</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>Date format: YYYY-MM-DD</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="inlineStr">
-        <is>
-          <t>study_id</t>
-        </is>
-      </c>
-      <c r="B112" s="2" t="inlineStr">
-        <is>
-          <t>EXCLUSION_LOG</t>
-        </is>
-      </c>
-      <c r="C112" s="2" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="D112" s="2" t="inlineStr"/>
-      <c r="E112" s="2" t="inlineStr">
-        <is>
-          <t>Study identifier (may not be in STUDY_METADATA)</t>
-        </is>
-      </c>
-      <c r="F112" s="2" t="inlineStr">
-        <is>
-          <t>501</t>
-        </is>
-      </c>
-      <c r="G112" s="2" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="inlineStr">
-        <is>
-          <t>first_author</t>
-        </is>
-      </c>
-      <c r="B113" s="2" t="inlineStr">
-        <is>
-          <t>EXCLUSION_LOG</t>
-        </is>
-      </c>
-      <c r="C113" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D113" s="2" t="inlineStr"/>
-      <c r="E113" s="2" t="inlineStr">
-        <is>
-          <t>Last name of first author</t>
-        </is>
-      </c>
-      <c r="F113" s="2" t="inlineStr">
-        <is>
-          <t>Jones</t>
-        </is>
-      </c>
-      <c r="G113" s="2" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="B114" s="2" t="inlineStr">
-        <is>
-          <t>EXCLUSION_LOG</t>
-        </is>
-      </c>
-      <c r="C114" s="2" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="D114" s="2" t="inlineStr">
-        <is>
-          <t>2015-2025</t>
-        </is>
-      </c>
-      <c r="E114" s="2" t="inlineStr">
-        <is>
-          <t>Publication year</t>
-        </is>
-      </c>
-      <c r="F114" s="2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="G114" s="2" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="B115" s="2" t="inlineStr">
-        <is>
-          <t>EXCLUSION_LOG</t>
-        </is>
-      </c>
-      <c r="C115" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D115" s="2" t="inlineStr"/>
-      <c r="E115" s="2" t="inlineStr">
-        <is>
-          <t>Full title of the paper</t>
-        </is>
-      </c>
-      <c r="F115" s="2" t="inlineStr">
-        <is>
-          <t>A Qualitative Study of AI...</t>
-        </is>
-      </c>
-      <c r="G115" s="2" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="inlineStr">
-        <is>
-          <t>exclusion_stage</t>
-        </is>
-      </c>
-      <c r="B116" s="2" t="inlineStr">
-        <is>
-          <t>EXCLUSION_LOG</t>
-        </is>
-      </c>
-      <c r="C116" s="2" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="D116" s="2" t="inlineStr">
-        <is>
-          <t>title_abstract,full_text,post_coding</t>
-        </is>
-      </c>
-      <c r="E116" s="2" t="inlineStr">
-        <is>
-          <t>Stage at which study was excluded</t>
-        </is>
-      </c>
-      <c r="F116" s="2" t="inlineStr">
-        <is>
-          <t>full_text</t>
-        </is>
-      </c>
-      <c r="G116" s="2" t="inlineStr">
-        <is>
-          <t>Dropdown list validation</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>exclusion_reason</t>
+          <t>study_id</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
@@ -4420,34 +4440,26 @@
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="D117" s="2" t="inlineStr">
-        <is>
-          <t>no_correlation_data,no_AI_focus,qualitative_only,duplicate_sample,insufficient_constructs,non_english,sample_too_small,not_peer_reviewed,non_educational_context</t>
-        </is>
-      </c>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr"/>
       <c r="E117" s="2" t="inlineStr">
         <is>
-          <t>Primary reason for exclusion</t>
+          <t>Study identifier (may not be in STUDY_METADATA)</t>
         </is>
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>qualitative_only</t>
-        </is>
-      </c>
-      <c r="G117" s="2" t="inlineStr">
-        <is>
-          <t>Dropdown list validation</t>
-        </is>
-      </c>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>exclude_code</t>
+          <t>first_author</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
@@ -4457,34 +4469,26 @@
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="D118" s="2" t="inlineStr">
-        <is>
-          <t>E1,E2,E3,E4,E5,E6,E7,E8,E9,E10,E11,E12</t>
-        </is>
-      </c>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr"/>
       <c r="E118" s="2" t="inlineStr">
         <is>
-          <t>Canonical exclusion code from coding manual</t>
+          <t>Last name of first author</t>
         </is>
       </c>
       <c r="F118" s="2" t="inlineStr">
         <is>
-          <t>E4</t>
-        </is>
-      </c>
-      <c r="G118" s="2" t="inlineStr">
-        <is>
-          <t>Dropdown list validation</t>
-        </is>
-      </c>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>detailed_rationale</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -4494,18 +4498,22 @@
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D119" s="2" t="inlineStr"/>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="inlineStr">
+        <is>
+          <t>2015-2025</t>
+        </is>
+      </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
-          <t>Detailed explanation of exclusion</t>
+          <t>Publication year</t>
         </is>
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>Study uses only interviews, no quant data</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G119" s="2" t="inlineStr"/>
@@ -4513,7 +4521,7 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>screen_decision_codex</t>
+          <t>title</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
@@ -4523,34 +4531,26 @@
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="inlineStr">
-        <is>
-          <t>include,exclude,uncertain,NA</t>
-        </is>
-      </c>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr"/>
       <c r="E120" s="2" t="inlineStr">
         <is>
-          <t>Codex screening decision</t>
+          <t>Full title of the paper</t>
         </is>
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>exclude</t>
-        </is>
-      </c>
-      <c r="G120" s="2" t="inlineStr">
-        <is>
-          <t>Dropdown list validation</t>
-        </is>
-      </c>
+          <t>A Qualitative Study of AI...</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>screen_decision_gemini</t>
+          <t>exclusion_stage</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -4565,17 +4565,17 @@
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>include,exclude,uncertain,NA</t>
+          <t>title_abstract,full_text,post_coding</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
-          <t>Gemini screening decision</t>
+          <t>Stage at which study was excluded</t>
         </is>
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>exclude</t>
+          <t>full_text</t>
         </is>
       </c>
       <c r="G121" s="2" t="inlineStr">
@@ -4587,7 +4587,7 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>human1_decision</t>
+          <t>exclusion_reason</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
@@ -4602,17 +4602,17 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>include,exclude,uncertain,NA</t>
+          <t>no_correlation_data,no_AI_focus,qualitative_only,duplicate_sample,insufficient_constructs,non_english,sample_too_small,not_peer_reviewed,non_educational_context</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
-          <t>First human screener decision</t>
+          <t>Primary reason for exclusion</t>
         </is>
       </c>
       <c r="F122" s="2" t="inlineStr">
         <is>
-          <t>exclude</t>
+          <t>qualitative_only</t>
         </is>
       </c>
       <c r="G122" s="2" t="inlineStr">
@@ -4624,7 +4624,7 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>human2_decision</t>
+          <t>exclude_code</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -4639,17 +4639,17 @@
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>include,exclude,uncertain,NA</t>
+          <t>E1,E2,E3,E4,E5,E6,E7,E8,E9,E10,E11,E12</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
-          <t>Second human screener decision</t>
+          <t>Canonical exclusion code from coding manual</t>
         </is>
       </c>
       <c r="F123" s="2" t="inlineStr">
         <is>
-          <t>exclude</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="G123" s="2" t="inlineStr">
@@ -4661,7 +4661,7 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>screener1_decision</t>
+          <t>detailed_rationale</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -4671,34 +4671,26 @@
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="D124" s="2" t="inlineStr">
-        <is>
-          <t>include,exclude,uncertain</t>
-        </is>
-      </c>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr"/>
       <c r="E124" s="2" t="inlineStr">
         <is>
-          <t>First screener's decision</t>
+          <t>Detailed explanation of exclusion</t>
         </is>
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>exclude</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="inlineStr">
-        <is>
-          <t>Dropdown list validation</t>
-        </is>
-      </c>
+          <t>Study uses only interviews, no quant data</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>screener2_decision</t>
+          <t>screen_decision_codex</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
@@ -4713,12 +4705,12 @@
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>include,exclude,uncertain</t>
+          <t>include,exclude,uncertain,NA</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
-          <t>Second screener's decision</t>
+          <t>Codex screening decision</t>
         </is>
       </c>
       <c r="F125" s="2" t="inlineStr">
@@ -4735,7 +4727,7 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>adjudicator_id</t>
+          <t>screen_decision_gemini</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
@@ -4745,226 +4737,411 @@
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D126" s="2" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>include,exclude,uncertain,NA</t>
+        </is>
+      </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>PI/adjudicator initials</t>
+          <t>Gemini screening decision</t>
         </is>
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>HY</t>
-        </is>
-      </c>
-      <c r="G126" s="2" t="inlineStr"/>
+          <t>exclude</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="inlineStr">
+        <is>
+          <t>Dropdown list validation</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
+          <t>human1_decision</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>EXCLUSION_LOG</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="inlineStr">
+        <is>
+          <t>include,exclude,uncertain,NA</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>First human screener decision</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>exclude</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="inlineStr">
+        <is>
+          <t>Dropdown list validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>human2_decision</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>EXCLUSION_LOG</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>include,exclude,uncertain,NA</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>Second human screener decision</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>exclude</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="inlineStr">
+        <is>
+          <t>Dropdown list validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>screener1_decision</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>EXCLUSION_LOG</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="inlineStr">
+        <is>
+          <t>include,exclude,uncertain</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>First screener's decision</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>exclude</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="inlineStr">
+        <is>
+          <t>Dropdown list validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>screener2_decision</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>EXCLUSION_LOG</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>include,exclude,uncertain</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>Second screener's decision</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>exclude</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="inlineStr">
+        <is>
+          <t>Dropdown list validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>adjudicator_id</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>EXCLUSION_LOG</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="inlineStr"/>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>PI/adjudicator initials</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>HY</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
           <t>final_decision</t>
         </is>
       </c>
-      <c r="B127" s="2" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>EXCLUSION_LOG</t>
         </is>
       </c>
-      <c r="C127" s="2" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>categorical</t>
         </is>
       </c>
-      <c r="D127" s="2" t="inlineStr">
+      <c r="D132" s="2" t="inlineStr">
         <is>
           <t>include,exclude</t>
         </is>
       </c>
-      <c r="E127" s="2" t="inlineStr">
+      <c r="E132" s="2" t="inlineStr">
         <is>
           <t>Final inclusion/exclusion decision</t>
         </is>
       </c>
-      <c r="F127" s="2" t="inlineStr">
+      <c r="F132" s="2" t="inlineStr">
         <is>
           <t>exclude</t>
         </is>
       </c>
-      <c r="G127" s="2" t="inlineStr">
+      <c r="G132" s="2" t="inlineStr">
         <is>
           <t>Dropdown list validation</t>
         </is>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>database</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>SEARCH_LOG</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>categorical</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>WoS,Scopus,PsycINFO,IEEE,ACM,ERIC,Education_Source,GoogleScholar</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>Database searched</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>ERIC</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>Dropdown list validation</t>
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>search_date</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>SEARCH_LOG</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>YYYY-MM-DD</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>Date of the search</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>2025-01-10</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>Date format: YYYY-MM-DD</t>
         </is>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>search_string</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>SEARCH_LOG</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr">
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
         <is>
           <t>Full search query used</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>("artificial intelligence" OR "AI") AND ("adoption" OR "acceptance")</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="G135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>results_count</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>SEARCH_LOG</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>Non-negative integer</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>Number of results returned</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>1247</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="G136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>SEARCH_LOG</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr">
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
         <is>
           <t>Notes about this search</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>Limited to 2015-2025</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G132"/>
+  <autoFilter ref="A1:G137"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4976,7 +5153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV1"/>
+  <dimension ref="A1:AY1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5010,29 +5187,32 @@
     <col width="18" customWidth="1" min="23" max="23"/>
     <col width="20" customWidth="1" min="24" max="24"/>
     <col width="20" customWidth="1" min="25" max="25"/>
-    <col width="22" customWidth="1" min="26" max="26"/>
-    <col width="20" customWidth="1" min="27" max="27"/>
-    <col width="18" customWidth="1" min="28" max="28"/>
-    <col width="18" customWidth="1" min="29" max="29"/>
-    <col width="18" customWidth="1" min="30" max="30"/>
-    <col width="20" customWidth="1" min="31" max="31"/>
-    <col width="15" customWidth="1" min="32" max="32"/>
-    <col width="35" customWidth="1" min="33" max="33"/>
+    <col width="14" customWidth="1" min="26" max="26"/>
+    <col width="14" customWidth="1" min="27" max="27"/>
+    <col width="22" customWidth="1" min="28" max="28"/>
+    <col width="22" customWidth="1" min="29" max="29"/>
+    <col width="20" customWidth="1" min="30" max="30"/>
+    <col width="18" customWidth="1" min="31" max="31"/>
+    <col width="18" customWidth="1" min="32" max="32"/>
+    <col width="18" customWidth="1" min="33" max="33"/>
     <col width="20" customWidth="1" min="34" max="34"/>
-    <col width="20" customWidth="1" min="35" max="35"/>
-    <col width="18" customWidth="1" min="36" max="36"/>
-    <col width="16" customWidth="1" min="37" max="37"/>
-    <col width="16" customWidth="1" min="38" max="38"/>
-    <col width="24" customWidth="1" min="39" max="39"/>
+    <col width="15" customWidth="1" min="35" max="35"/>
+    <col width="35" customWidth="1" min="36" max="36"/>
+    <col width="20" customWidth="1" min="37" max="37"/>
+    <col width="20" customWidth="1" min="38" max="38"/>
+    <col width="18" customWidth="1" min="39" max="39"/>
     <col width="16" customWidth="1" min="40" max="40"/>
-    <col width="35" customWidth="1" min="41" max="41"/>
-    <col width="15" customWidth="1" min="42" max="42"/>
-    <col width="18" customWidth="1" min="43" max="43"/>
-    <col width="22" customWidth="1" min="44" max="44"/>
-    <col width="22" customWidth="1" min="45" max="45"/>
-    <col width="15" customWidth="1" min="46" max="46"/>
-    <col width="14" customWidth="1" min="47" max="47"/>
-    <col width="30" customWidth="1" min="48" max="48"/>
+    <col width="16" customWidth="1" min="41" max="41"/>
+    <col width="24" customWidth="1" min="42" max="42"/>
+    <col width="16" customWidth="1" min="43" max="43"/>
+    <col width="35" customWidth="1" min="44" max="44"/>
+    <col width="15" customWidth="1" min="45" max="45"/>
+    <col width="18" customWidth="1" min="46" max="46"/>
+    <col width="22" customWidth="1" min="47" max="47"/>
+    <col width="22" customWidth="1" min="48" max="48"/>
+    <col width="15" customWidth="1" min="49" max="49"/>
+    <col width="14" customWidth="1" min="50" max="50"/>
+    <col width="30" customWidth="1" min="51" max="51"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5163,123 +5343,138 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
+          <t>measures_BI</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>measures_UB</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>adoption_dv_type</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
           <t>n_correlations_reported</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>matrix_completeness</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>reporting_quality</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>sample_adequacy</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>construct_validity</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>common_method_bias</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>overall_quality</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>rob_notes</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>screen_decision_codex</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>screen_decision_gemini</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>screen_consensus</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>human1_decision</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>human2_decision</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>adjudicated_final_decision</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>exclude_code</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>decision_rationale</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>adjudicator_id</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>screen_run_id</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>oauth_auth_method_codex</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>oauth_auth_method_gemini</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>human_coder</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>coding_date</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>coding_notes</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AV1001"/>
-  <dataValidations count="29">
+  <autoFilter ref="A1:AY1001"/>
+  <dataValidations count="32">
     <dataValidation sqref="F2:F1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for source_type." promptTitle="source_type" prompt="Select a value: journal,conference" type="list">
       <formula1>"journal,conference"</formula1>
     </dataValidation>
@@ -5325,46 +5520,55 @@
     <dataValidation sqref="W2:W1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for country_development." promptTitle="country_development" prompt="Select a value: developed,developing" type="list">
       <formula1>"developed,developing"</formula1>
     </dataValidation>
-    <dataValidation sqref="AB2:AB1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for reporting_quality." promptTitle="reporting_quality" prompt="Select a value: 1,2,3,4,5" type="list">
+    <dataValidation sqref="Z2:Z1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for measures_BI." promptTitle="measures_BI" prompt="Select a value: yes,no" type="list">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+    <dataValidation sqref="AA2:AA1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for measures_UB." promptTitle="measures_UB" prompt="Select a value: yes,no" type="list">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+    <dataValidation sqref="AB2:AB1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for adoption_dv_type." promptTitle="adoption_dv_type" prompt="Select a value: BI_only,UB_only,BI_and_UB,readiness_as_BI,other" type="list">
+      <formula1>"BI_only,UB_only,BI_and_UB,readiness_as_BI,other"</formula1>
+    </dataValidation>
+    <dataValidation sqref="AE2:AE1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for reporting_quality." promptTitle="reporting_quality" prompt="Select a value: 1,2,3,4,5" type="list">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation sqref="AC2:AC1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for sample_adequacy." promptTitle="sample_adequacy" prompt="Select a value: adequate,marginal,inadequate" type="list">
+    <dataValidation sqref="AF2:AF1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for sample_adequacy." promptTitle="sample_adequacy" prompt="Select a value: adequate,marginal,inadequate" type="list">
       <formula1>"adequate,marginal,inadequate"</formula1>
     </dataValidation>
-    <dataValidation sqref="AD2:AD1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for construct_validity." promptTitle="construct_validity" prompt="Select a value: good,acceptable,poor" type="list">
+    <dataValidation sqref="AG2:AG1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for construct_validity." promptTitle="construct_validity" prompt="Select a value: good,acceptable,poor" type="list">
       <formula1>"good,acceptable,poor"</formula1>
     </dataValidation>
-    <dataValidation sqref="AE2:AE1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for common_method_bias." promptTitle="common_method_bias" prompt="Select a value: addressed,not_addressed,partial" type="list">
+    <dataValidation sqref="AH2:AH1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for common_method_bias." promptTitle="common_method_bias" prompt="Select a value: addressed,not_addressed,partial" type="list">
       <formula1>"addressed,not_addressed,partial"</formula1>
     </dataValidation>
-    <dataValidation sqref="AF2:AF1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for overall_quality." promptTitle="overall_quality" prompt="Select a value: high,medium,low" type="list">
+    <dataValidation sqref="AI2:AI1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for overall_quality." promptTitle="overall_quality" prompt="Select a value: high,medium,low" type="list">
       <formula1>"high,medium,low"</formula1>
     </dataValidation>
-    <dataValidation sqref="AH2:AH1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for screen_decision_codex." promptTitle="screen_decision_codex" prompt="Select a value: include,exclude,uncertain" type="list">
+    <dataValidation sqref="AK2:AK1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for screen_decision_codex." promptTitle="screen_decision_codex" prompt="Select a value: include,exclude,uncertain" type="list">
       <formula1>"include,exclude,uncertain"</formula1>
     </dataValidation>
-    <dataValidation sqref="AI2:AI1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for screen_decision_gemini." promptTitle="screen_decision_gemini" prompt="Select a value: include,exclude,uncertain" type="list">
+    <dataValidation sqref="AL2:AL1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for screen_decision_gemini." promptTitle="screen_decision_gemini" prompt="Select a value: include,exclude,uncertain" type="list">
       <formula1>"include,exclude,uncertain"</formula1>
     </dataValidation>
-    <dataValidation sqref="AJ2:AJ1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for screen_consensus." promptTitle="screen_consensus" prompt="Select a value: include,exclude,conflict" type="list">
+    <dataValidation sqref="AM2:AM1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for screen_consensus." promptTitle="screen_consensus" prompt="Select a value: include,exclude,conflict" type="list">
       <formula1>"include,exclude,conflict"</formula1>
     </dataValidation>
-    <dataValidation sqref="AK2:AK1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for human1_decision." promptTitle="human1_decision" prompt="Select a value: include,exclude,uncertain" type="list">
+    <dataValidation sqref="AN2:AN1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for human1_decision." promptTitle="human1_decision" prompt="Select a value: include,exclude,uncertain" type="list">
       <formula1>"include,exclude,uncertain"</formula1>
     </dataValidation>
-    <dataValidation sqref="AL2:AL1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for human2_decision." promptTitle="human2_decision" prompt="Select a value: include,exclude,uncertain" type="list">
+    <dataValidation sqref="AO2:AO1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for human2_decision." promptTitle="human2_decision" prompt="Select a value: include,exclude,uncertain" type="list">
       <formula1>"include,exclude,uncertain"</formula1>
     </dataValidation>
-    <dataValidation sqref="AM2:AM1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for adjudicated_final_decision." promptTitle="adjudicated_final_decision" prompt="Select a value: include,exclude" type="list">
+    <dataValidation sqref="AP2:AP1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for adjudicated_final_decision." promptTitle="adjudicated_final_decision" prompt="Select a value: include,exclude" type="list">
       <formula1>"include,exclude"</formula1>
     </dataValidation>
-    <dataValidation sqref="AN2:AN1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for exclude_code." promptTitle="exclude_code" prompt="Select a value: E1,E2,E3,E4,E5,E6,E7,E8,E9,E10,E11,E12" type="list">
+    <dataValidation sqref="AQ2:AQ1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for exclude_code." promptTitle="exclude_code" prompt="Select a value: E1,E2,E3,E4,E5,E6,E7,E8,E9,E10,E11,E12" type="list">
       <formula1>"E1,E2,E3,E4,E5,E6,E7,E8,E9,E10,E11,E12"</formula1>
     </dataValidation>
-    <dataValidation sqref="AR2:AR1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for oauth_auth_method_codex." promptTitle="oauth_auth_method_codex" prompt="Select a value: oauth,api_key,unknown" type="list">
+    <dataValidation sqref="AU2:AU1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for oauth_auth_method_codex." promptTitle="oauth_auth_method_codex" prompt="Select a value: oauth,api_key,unknown" type="list">
       <formula1>"oauth,api_key,unknown"</formula1>
     </dataValidation>
-    <dataValidation sqref="AS2:AS1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for oauth_auth_method_gemini." promptTitle="oauth_auth_method_gemini" prompt="Select a value: oauth,api_key,unknown" type="list">
+    <dataValidation sqref="AV2:AV1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for oauth_auth_method_gemini." promptTitle="oauth_auth_method_gemini" prompt="Select a value: oauth,api_key,unknown" type="list">
       <formula1>"oauth,api_key,unknown"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5482,7 +5686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5501,6 +5705,8 @@
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="22" customWidth="1" min="11" max="11"/>
+    <col width="35" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5554,15 +5760,28 @@
           <t>scale_source</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>is_readiness_construct</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>readiness_mapping_note</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1001"/>
-  <dataValidations count="2">
+  <autoFilter ref="A1:L1001"/>
+  <dataValidations count="3">
     <dataValidation sqref="C2:C1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for mapped_to." promptTitle="mapped_to" prompt="Select a value: PE,EE,SI,FC,BI,UB,ATT,SE,TRU,ANX,TRA,AUT" type="list">
       <formula1>"PE,EE,SI,FC,BI,UB,ATT,SE,TRU,ANX,TRA,AUT"</formula1>
     </dataValidation>
     <dataValidation sqref="D2:D1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for mapping_confidence." promptTitle="mapping_confidence" prompt="Select a value: exact,high,moderate,low" type="list">
       <formula1>"exact,high,moderate,low"</formula1>
+    </dataValidation>
+    <dataValidation sqref="K2:K1001" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Please select from the dropdown list for is_readiness_construct." promptTitle="is_readiness_construct" prompt="Select a value: yes,no" type="list">
+      <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
